--- a/static/report_file/110年捐款收入公告版.xlsx
+++ b/static/report_file/110年捐款收入公告版.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\其他資料\會計\揚帆110年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AF3260-3282-4F07-9DDB-3913A4C65F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF9B3A0-9F5E-4174-8251-FB27A57C1078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D0B7265C-D2C2-4FC2-810D-30408EB76ADD}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{D0B7265C-D2C2-4FC2-810D-30408EB76ADD}"/>
   </bookViews>
   <sheets>
     <sheet name="公告" sheetId="6" r:id="rId1"/>
@@ -861,7 +861,7 @@
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -943,6 +943,33 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="細明體"/>
       <family val="1"/>
       <charset val="136"/>
     </font>
@@ -1098,7 +1125,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,6 +1217,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1634,28 +1673,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD35F957-C3C3-5540-BC9E-9480F44F496A}">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4:K10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="10.921875" defaultRowHeight="16.75"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.3828125" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="9.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.1796875" customWidth="1"/>
-    <col min="8" max="8" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.84375" customWidth="1"/>
+    <col min="4" max="4" width="9.4609375" customWidth="1"/>
+    <col min="5" max="5" width="9.84375" customWidth="1"/>
+    <col min="6" max="6" width="10.921875" customWidth="1"/>
+    <col min="7" max="7" width="14.15234375" customWidth="1"/>
+    <col min="8" max="8" width="11.3828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="66" customHeight="1">
+    <row r="1" spans="1:11" ht="66" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:11">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
@@ -1681,8 +1722,8 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="31" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="13">
@@ -1707,12 +1748,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="14">
-        <v>1842000</v>
+    <row r="4" spans="1:11">
+      <c r="A4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="13">
+        <v>400000</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>96</v>
@@ -1733,12 +1774,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="13">
-        <v>400000</v>
+    <row r="5" spans="1:11">
+      <c r="A5" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="15">
+        <v>80720</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>96</v>
@@ -1758,13 +1799,15 @@
       <c r="H5" s="20">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="15">
-        <v>80720</v>
+      <c r="J5" s="31"/>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4000</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>97</v>
@@ -1785,8 +1828,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B7" s="13">
@@ -1811,12 +1854,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="6" t="s">
-        <v>31</v>
+    <row r="8" spans="1:11">
+      <c r="A8" s="31" t="s">
+        <v>25</v>
       </c>
       <c r="B8" s="13">
-        <v>4000</v>
+        <v>200000</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>99</v>
@@ -1836,9 +1879,11 @@
       <c r="H8" s="20">
         <v>30000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="6" t="s">
+      <c r="J8" s="31"/>
+      <c r="K8" s="13"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B9" s="13">
@@ -1863,8 +1908,8 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="31" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="13">
@@ -1889,12 +1934,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="6" t="s">
-        <v>25</v>
+    <row r="11" spans="1:11">
+      <c r="A11" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B11" s="13">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>102</v>
@@ -1915,12 +1960,12 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="7" t="s">
-        <v>26</v>
+    <row r="12" spans="1:11">
+      <c r="A12" s="31" t="s">
+        <v>15</v>
       </c>
       <c r="B12" s="13">
-        <v>250000</v>
+        <v>1842000</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>103</v>
@@ -1941,8 +1986,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="31" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="13">
@@ -1967,8 +2012,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:11">
+      <c r="A14" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="13">
@@ -1993,8 +2038,8 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" s="33" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="13">
@@ -2019,7 +2064,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:11">
       <c r="A16" s="6" t="s">
         <v>14</v>
       </c>
@@ -2439,7 +2484,7 @@
         <f>SUM(B3:B31)</f>
         <v>6064674</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="34" t="s">
         <v>123</v>
       </c>
       <c r="D32" s="17">
@@ -3324,11 +3369,12 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="4">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>